--- a/data/QC/质控组仪表盘9-2.xlsx
+++ b/data/QC/质控组仪表盘9-2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7765376-28A4-4EE5-87F4-0450EF145A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>组别</t>
   </si>
@@ -87,9 +86,6 @@
     <t>48h通过率标线</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>总体</t>
   </si>
   <si>
@@ -138,9 +134,6 @@
     <t>下单错误数</t>
   </si>
   <si>
-    <t>张悦</t>
-  </si>
-  <si>
     <t>卢楠</t>
   </si>
   <si>
@@ -154,13 +147,20 @@
   </si>
   <si>
     <t>9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京组</t>
+  </si>
+  <si>
+    <t>北京组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,23 +300,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -352,23 +335,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,93 +530,93 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>43.23</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>15.12</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -667,46 +633,46 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>43.23</v>
+        <v>582.08000000000004</v>
       </c>
       <c r="H3">
-        <v>15.12</v>
+        <v>10.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -718,51 +684,51 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="D4">
-        <v>76</v>
-      </c>
-      <c r="E4">
-        <v>63</v>
-      </c>
-      <c r="F4">
-        <v>68</v>
-      </c>
       <c r="G4">
-        <v>582.08000000000004</v>
+        <v>300.95999999999998</v>
       </c>
       <c r="H4">
-        <v>10.5</v>
+        <v>9.89</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N4">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -774,62 +740,6 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>300.95999999999998</v>
-      </c>
-      <c r="H5">
-        <v>9.89</v>
-      </c>
-      <c r="I5">
-        <v>41</v>
-      </c>
-      <c r="J5">
-        <v>45</v>
-      </c>
-      <c r="K5">
-        <v>39</v>
-      </c>
-      <c r="L5">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>43</v>
-      </c>
-      <c r="N5">
-        <v>43</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
         <v>0</v>
       </c>
     </row>
@@ -841,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,13 +833,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>26</v>
